--- a/archive/BJG2024 captures.xlsx
+++ b/archive/BJG2024 captures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcramton\Code\BJG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcramton\Code\BJG\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F41436-87BF-4058-B474-CF9C5F43B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC5C13-0667-4CEF-9448-8A38248A6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="-5205" windowWidth="28800" windowHeight="17820" xr2:uid="{90E8BE10-651F-4C23-94E1-70F61125D92B}"/>
+    <workbookView xWindow="19200" yWindow="-10800" windowWidth="15680" windowHeight="21000" xr2:uid="{90E8BE10-651F-4C23-94E1-70F61125D92B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
   <si>
     <t>Player</t>
   </si>
@@ -100,15 +100,33 @@
   <si>
     <t>Brown Jacket Points</t>
   </si>
+  <si>
+    <t>aime</t>
+  </si>
+  <si>
+    <t>Ave. Stableford Point</t>
+  </si>
+  <si>
+    <t>FedEx Cup Points</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +179,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -347,11 +384,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -381,9 +433,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,9 +440,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -409,7 +455,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,10 +465,49 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,81 +844,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31778414-98F2-42CD-9454-F971DD9FAB37}">
-  <dimension ref="A1:AK286"/>
+  <dimension ref="A1:AL286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="11" width="8.7265625" style="9"/>
-    <col min="12" max="37" width="4.453125" style="9" customWidth="1"/>
-    <col min="38" max="38" width="4.453125" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="9"/>
+    <col min="13" max="13" width="4.453125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="9" customWidth="1"/>
+    <col min="15" max="16" width="4.453125" style="9" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" style="9" customWidth="1"/>
+    <col min="19" max="38" width="4.453125" style="9" customWidth="1"/>
+    <col min="39" max="39" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="J1" s="10" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="K1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10" t="s">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="10"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL1" s="36"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>925</v>
       </c>
@@ -844,91 +933,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIF($B$2:$B$286,B2,$C$2:$C$286)</f>
+        <f t="shared" ref="D2:D15" si="0">SUMIF($B$2:$B$286,B2,$C$2:$C$286)</f>
         <v>-15</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AF2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>925</v>
       </c>
@@ -939,59 +1028,59 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>SUMIF($B$2:$B$286,B3,$C$2:$C$286)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
         <v>45785</v>
       </c>
-      <c r="K3" s="13">
+      <c r="L3" s="12">
         <v>10</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
         <v>7</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="12">
         <v>8</v>
       </c>
-      <c r="S3" s="13">
+      <c r="T3" s="12">
         <v>13</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13">
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12">
         <v>-6</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Z3" s="12">
         <v>5</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AA3" s="12">
         <v>-2</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AB3" s="12">
         <v>7</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>925</v>
       </c>
@@ -1002,51 +1091,51 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUMIF($B$2:$B$286,B4,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="11">
         <v>45788</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="12">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
         <v>7</v>
       </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
         <v>10</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>925</v>
       </c>
@@ -1057,55 +1146,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUMIF($B$2:$B$286,B5,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="11">
         <v>45792</v>
       </c>
-      <c r="K5" s="13">
+      <c r="L5" s="12">
         <v>9</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
         <v>12</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13">
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12">
         <v>3</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AB5" s="12">
         <v>13</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AC5" s="12">
         <v>-3</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AD5" s="12">
         <v>10</v>
       </c>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>925</v>
       </c>
@@ -1116,59 +1205,59 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>SUMIF($B$2:$B$286,B6,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="11">
         <v>45792</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L6" s="12">
         <v>9</v>
       </c>
-      <c r="L6" s="13">
+      <c r="M6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="13">
+      <c r="N6" s="12">
         <v>7</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
         <v>-4</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="R6" s="12">
         <v>3</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <v>-2</v>
       </c>
-      <c r="U6" s="13">
-        <v>6</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13">
+      <c r="V6" s="12">
+        <v>6</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12">
         <v>4</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Z6" s="12">
         <v>9</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>925</v>
       </c>
@@ -1179,59 +1268,59 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>SUMIF($B$2:$B$286,B7,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="11">
         <v>45795</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="12">
         <v>10</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12">
         <v>4</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Z7" s="12">
         <v>11</v>
       </c>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12">
         <v>-6</v>
       </c>
-      <c r="AC7" s="13">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="12">
         <v>-4</v>
       </c>
-      <c r="AE7" s="13">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="13">
+      <c r="AF7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="12">
         <v>10</v>
       </c>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>925</v>
       </c>
@@ -1242,55 +1331,55 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>SUMIF($B$2:$B$286,B8,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="11">
         <v>45795</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="12">
         <v>10</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
         <v>4.5</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="12">
         <v>16</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
         <v>-6</v>
       </c>
-      <c r="U8" s="13">
+      <c r="V8" s="12">
         <v>9</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13">
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12">
         <v>1.5</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="12">
         <v>12</v>
       </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>925</v>
       </c>
@@ -1301,55 +1390,55 @@
         <v>-2</v>
       </c>
       <c r="D9">
-        <f>SUMIF($B$2:$B$286,B9,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="11">
         <v>45799</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L9" s="12">
         <v>11</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12">
         <v>3</v>
       </c>
-      <c r="W9" s="13">
+      <c r="X9" s="12">
         <v>9</v>
       </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="12">
         <v>1.5</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Z9" s="12">
         <v>8</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12">
         <v>-4.5</v>
       </c>
-      <c r="AI9" s="13">
+      <c r="AJ9" s="12">
         <v>5</v>
       </c>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>925</v>
       </c>
@@ -1360,51 +1449,51 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>SUMIF($B$2:$B$286,B10,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-8.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="11">
         <v>45799</v>
       </c>
-      <c r="K10" s="13">
+      <c r="L10" s="12">
         <v>11</v>
       </c>
-      <c r="L10" s="13">
+      <c r="M10" s="12">
         <v>-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="N10" s="12">
         <v>8</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12">
         <v>2</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AB10" s="12">
         <v>11</v>
       </c>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>925</v>
       </c>
@@ -1415,51 +1504,51 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>SUMIF($B$2:$B$286,B11,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="11">
         <v>45801</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L11" s="12">
         <v>11</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12">
         <v>4</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="12">
         <v>13</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AA11" s="12">
         <v>-4</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AB11" s="12">
         <v>9</v>
       </c>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>925</v>
       </c>
@@ -1470,59 +1559,59 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f>SUMIF($B$2:$B$286,B12,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="11">
         <v>45802</v>
       </c>
-      <c r="K12" s="13">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12">
         <v>-3</v>
       </c>
-      <c r="M12" s="13">
+      <c r="N12" s="12">
         <v>3</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12">
         <v>2</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Z12" s="12">
         <v>4</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12">
         <v>-3</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AF12" s="12">
         <v>3</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AG12" s="12">
         <v>4</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AH12" s="12">
         <v>5</v>
       </c>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>925</v>
       </c>
@@ -1533,55 +1622,55 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>SUMIF($B$2:$B$286,B13,$C$2:$C$286)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <v>45802</v>
       </c>
-      <c r="K13" s="13">
-        <v>6</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13">
+      <c r="L13" s="12">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12">
         <v>-3</v>
       </c>
-      <c r="W13" s="13">
+      <c r="X13" s="12">
         <v>5</v>
       </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="13">
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="12">
         <v>3</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AD13" s="12">
         <v>7</v>
       </c>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>925</v>
       </c>
@@ -1592,55 +1681,55 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>SUMIF($B$2:$B$286,B14,$C$2:$C$286)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
         <v>45802</v>
       </c>
-      <c r="K14" s="13">
+      <c r="L14" s="12">
         <v>5</v>
       </c>
-      <c r="L14" s="13">
+      <c r="M14" s="12">
         <v>-3</v>
       </c>
-      <c r="M14" s="13">
+      <c r="N14" s="12">
         <v>2</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12">
         <v>1.5</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Z14" s="12">
         <v>3</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13">
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12">
         <v>1.5</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AF14" s="12">
         <v>3</v>
       </c>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>928</v>
       </c>
@@ -1651,55 +1740,55 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUMIF($B$2:$B$286,B15,$C$2:$C$286)</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="11">
         <v>45806</v>
       </c>
-      <c r="K15" s="13">
+      <c r="L15" s="12">
         <v>10</v>
       </c>
-      <c r="L15" s="13">
-        <v>6</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12">
         <v>14</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12">
         <v>-4.5</v>
       </c>
-      <c r="U15" s="13">
+      <c r="V15" s="12">
         <v>8</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12">
         <v>-1.5</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Z15" s="12">
         <v>10</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>928</v>
       </c>
@@ -1709,48 +1798,48 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="11">
         <v>45806</v>
       </c>
-      <c r="K16" s="13">
+      <c r="L16" s="12">
         <v>10</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
         <v>11</v>
       </c>
-      <c r="AB16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
         <v>11</v>
       </c>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>928</v>
       </c>
@@ -1760,48 +1849,48 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="11">
         <v>45808</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="12">
         <v>10</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12">
         <v>-2</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Z17" s="12">
         <v>7</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="AA17" s="12">
         <v>2</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AB17" s="12">
         <v>9</v>
       </c>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>928</v>
       </c>
@@ -1811,56 +1900,56 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="11">
         <v>45809</v>
       </c>
-      <c r="K18" s="13">
+      <c r="L18" s="12">
         <v>11</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12">
         <v>2</v>
       </c>
-      <c r="W18" s="13">
+      <c r="X18" s="12">
         <v>11</v>
       </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13">
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12">
         <v>-8</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AD18" s="12">
         <v>3</v>
       </c>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13">
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12">
         <v>4</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AH18" s="12">
         <v>12</v>
       </c>
-      <c r="AH18" s="13">
+      <c r="AI18" s="12">
         <v>2</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AJ18" s="12">
         <v>11</v>
       </c>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>928</v>
       </c>
@@ -1870,56 +1959,56 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="11">
         <v>45809</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="12">
         <v>11</v>
       </c>
-      <c r="L19" s="13">
+      <c r="M19" s="12">
         <v>1</v>
       </c>
-      <c r="M19" s="13">
+      <c r="N19" s="12">
         <v>12</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12">
         <v>1</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Z19" s="12">
         <v>10</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="AA19" s="12">
         <v>-1</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AB19" s="12">
         <v>9</v>
       </c>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12">
         <v>-1</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AF19" s="12">
         <v>8</v>
       </c>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>928</v>
       </c>
@@ -1929,56 +2018,56 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="11">
         <v>45812</v>
       </c>
-      <c r="K20" s="13">
+      <c r="L20" s="12">
         <v>11</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12">
         <v>2</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="R20" s="12">
         <v>12</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13">
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12">
         <v>-2</v>
       </c>
-      <c r="U20" s="13">
+      <c r="V20" s="12">
         <v>8</v>
       </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="13">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="12">
         <v>15</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13">
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12">
         <v>-6</v>
       </c>
-      <c r="AG20" s="13">
+      <c r="AH20" s="12">
         <v>7</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>928</v>
       </c>
@@ -1988,48 +2077,48 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="11">
         <v>45814</v>
       </c>
-      <c r="K21" s="13">
+      <c r="L21" s="12">
         <v>11</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12">
         <v>-4</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AB21" s="12">
         <v>9</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AC21" s="12">
         <v>4</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AD21" s="12">
         <v>16</v>
       </c>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>928</v>
       </c>
@@ -2039,56 +2128,56 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="11">
         <v>45816</v>
       </c>
-      <c r="K22" s="13">
+      <c r="L22" s="12">
         <v>13</v>
       </c>
-      <c r="L22" s="13">
+      <c r="M22" s="12">
         <v>2</v>
       </c>
-      <c r="M22" s="13">
+      <c r="N22" s="12">
         <v>16</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12">
         <v>-2</v>
       </c>
-      <c r="U22" s="13">
+      <c r="V22" s="12">
         <v>10</v>
       </c>
-      <c r="V22" s="13">
+      <c r="W22" s="12">
         <v>1</v>
       </c>
-      <c r="W22" s="13">
+      <c r="X22" s="12">
         <v>12</v>
       </c>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13">
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12">
         <v>-1</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AB22" s="12">
         <v>9</v>
       </c>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>928</v>
       </c>
@@ -2098,56 +2187,56 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="11">
         <v>45816</v>
       </c>
-      <c r="K23" s="13">
+      <c r="L23" s="12">
         <v>13</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12">
         <v>4</v>
       </c>
-      <c r="O23" s="13">
+      <c r="P23" s="12">
         <v>14</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12">
         <v>-4</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Z23" s="12">
         <v>10</v>
       </c>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="13">
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
         <v>9</v>
       </c>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="13">
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="12">
         <v>12</v>
       </c>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>928</v>
       </c>
@@ -2157,52 +2246,52 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="11">
         <v>45818</v>
       </c>
-      <c r="K24" s="13">
+      <c r="L24" s="12">
         <v>12</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12">
         <v>1.5</v>
       </c>
-      <c r="O24" s="13">
+      <c r="P24" s="12">
         <v>13</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12">
         <v>-1.5</v>
       </c>
-      <c r="U24" s="13">
+      <c r="V24" s="12">
         <v>8</v>
       </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="13">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
         <v>9</v>
       </c>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>928</v>
       </c>
@@ -2212,52 +2301,52 @@
       <c r="C25">
         <v>-2</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="11">
         <v>45823</v>
       </c>
-      <c r="K25" s="13">
+      <c r="L25" s="12">
         <v>15</v>
       </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
         <v>15</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12">
         <v>4.5</v>
       </c>
-      <c r="W25" s="13">
+      <c r="X25" s="12">
         <v>19</v>
       </c>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13">
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12">
         <v>-4.5</v>
       </c>
-      <c r="AI25" s="13">
+      <c r="AJ25" s="12">
         <v>14</v>
       </c>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>928</v>
       </c>
@@ -2267,52 +2356,52 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="11">
         <v>45823</v>
       </c>
-      <c r="K26" s="13">
+      <c r="L26" s="12">
         <v>15</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12">
         <v>-4.5</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AB26" s="12">
         <v>7</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AC26" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AD26" s="12">
         <v>8</v>
       </c>
-      <c r="AD26" s="13">
-        <v>6</v>
-      </c>
-      <c r="AE26" s="13">
+      <c r="AE26" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="12">
         <v>11</v>
       </c>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>928</v>
       </c>
@@ -2322,48 +2411,48 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="11">
         <v>45823</v>
       </c>
-      <c r="K27" s="13">
+      <c r="L27" s="12">
         <v>15</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12">
         <v>-4</v>
       </c>
-      <c r="U27" s="13">
+      <c r="V27" s="12">
         <v>10</v>
       </c>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13">
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12">
         <v>4</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="Z27" s="12">
         <v>15</v>
       </c>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>928</v>
       </c>
@@ -2373,52 +2462,52 @@
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="11">
         <v>45830</v>
       </c>
-      <c r="K28" s="13">
+      <c r="L28" s="12">
         <v>15</v>
       </c>
-      <c r="L28" s="13">
+      <c r="M28" s="12">
         <v>3</v>
       </c>
-      <c r="M28" s="13">
+      <c r="N28" s="12">
         <v>14</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12">
         <v>1.5</v>
       </c>
-      <c r="U28" s="13">
+      <c r="V28" s="12">
         <v>13</v>
       </c>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12">
         <v>-4.5</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AF28" s="12">
         <v>8</v>
       </c>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>928</v>
       </c>
@@ -2428,52 +2517,52 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="J29" s="12">
+      <c r="K29" s="11">
         <v>45830</v>
       </c>
-      <c r="K29" s="13">
+      <c r="L29" s="12">
         <v>15</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13">
-        <v>6</v>
-      </c>
-      <c r="O29" s="13">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12">
+        <v>6</v>
+      </c>
+      <c r="P29" s="12">
         <v>25</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12">
         <v>-9</v>
       </c>
-      <c r="W29" s="13">
+      <c r="X29" s="12">
         <v>10</v>
       </c>
-      <c r="X29" s="13">
+      <c r="Y29" s="12">
         <v>3</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Z29" s="12">
         <v>17</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>928</v>
       </c>
@@ -2483,52 +2572,52 @@
       <c r="C30">
         <v>-7.5</v>
       </c>
-      <c r="J30" s="12">
+      <c r="K30" s="11">
         <v>45839</v>
       </c>
-      <c r="K30" s="13">
+      <c r="L30" s="12">
         <v>14</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
         <v>10</v>
       </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="13">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
         <v>12</v>
       </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="13">
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="12">
         <v>10</v>
       </c>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>928</v>
       </c>
@@ -2538,56 +2627,56 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="J31" s="12">
+      <c r="K31" s="11">
         <v>45844</v>
       </c>
-      <c r="K31" s="13">
+      <c r="L31" s="12">
         <v>13</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12">
         <v>1.66</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Z31" s="12">
         <v>13</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="AA31" s="12">
         <v>7</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AB31" s="12">
         <v>14</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AC31" s="12">
         <v>-4.33</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AD31" s="12">
         <v>10</v>
       </c>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13">
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12">
         <v>-4.33</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AH31" s="12">
         <v>10</v>
       </c>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>928</v>
       </c>
@@ -2597,48 +2686,48 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="J32" s="12">
+      <c r="K32" s="11">
         <v>45844</v>
       </c>
-      <c r="K32" s="13">
+      <c r="L32" s="12">
         <v>13</v>
       </c>
-      <c r="L32" s="13">
+      <c r="M32" s="12">
         <v>-2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="N32" s="12">
         <v>7</v>
       </c>
-      <c r="N32" s="13">
+      <c r="O32" s="12">
         <v>2</v>
       </c>
-      <c r="O32" s="13">
+      <c r="P32" s="12">
         <v>12</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>928</v>
       </c>
@@ -2648,56 +2737,56 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="J33" s="12">
+      <c r="K33" s="11">
         <v>45851</v>
       </c>
-      <c r="K33" s="13">
+      <c r="L33" s="12">
         <v>12</v>
       </c>
-      <c r="L33" s="13">
+      <c r="M33" s="12">
         <v>-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="N33" s="12">
         <v>7</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12">
         <v>-1</v>
       </c>
-      <c r="S33" s="13">
+      <c r="T33" s="12">
         <v>12</v>
       </c>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13">
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12">
         <v>-5</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Z33" s="12">
         <v>10</v>
       </c>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13">
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12">
         <v>8</v>
       </c>
-      <c r="AC33" s="13">
+      <c r="AD33" s="12">
         <v>19</v>
       </c>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>928</v>
       </c>
@@ -2707,52 +2796,52 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="J34" s="12">
+      <c r="K34" s="11">
         <v>45851</v>
       </c>
-      <c r="K34" s="13">
+      <c r="L34" s="12">
         <v>12</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13">
-        <v>0</v>
-      </c>
-      <c r="W34" s="13">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12">
+        <v>0</v>
+      </c>
+      <c r="X34" s="12">
         <v>9</v>
       </c>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13">
-        <v>6</v>
-      </c>
-      <c r="AA34" s="13">
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="12">
         <v>11</v>
       </c>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12">
         <v>-6</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AH34" s="12">
         <v>5</v>
       </c>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>928</v>
       </c>
@@ -2762,52 +2851,52 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="J35" s="12">
+      <c r="K35" s="11">
         <v>45872</v>
       </c>
-      <c r="K35" s="13">
+      <c r="L35" s="12">
         <v>18</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12">
         <v>9</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AD35" s="12">
         <v>25</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AE35" s="12">
         <v>-6</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AF35" s="12">
         <v>15</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AG35" s="12">
         <v>-3</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AH35" s="12">
         <v>17</v>
       </c>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>928</v>
       </c>
@@ -2817,52 +2906,52 @@
       <c r="C36">
         <v>1.5</v>
       </c>
-      <c r="J36" s="12">
+      <c r="K36" s="11">
         <v>45872</v>
       </c>
-      <c r="K36" s="13">
+      <c r="L36" s="12">
         <v>18</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12">
         <v>-4.5</v>
       </c>
-      <c r="Y36" s="13">
+      <c r="Z36" s="12">
         <v>18</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="AA36" s="12">
         <v>1.5</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AB36" s="12">
         <v>29</v>
       </c>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13">
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12">
         <v>3</v>
       </c>
-      <c r="AI36" s="13">
+      <c r="AJ36" s="12">
         <v>18</v>
       </c>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>928</v>
       </c>
@@ -2872,52 +2961,52 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="J37" s="12">
+      <c r="K37" s="11">
         <v>45879</v>
       </c>
-      <c r="K37" s="13">
+      <c r="L37" s="12">
         <v>18</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
-        <v>0</v>
-      </c>
-      <c r="O37" s="13">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12">
+        <v>0</v>
+      </c>
+      <c r="P37" s="12">
         <v>18</v>
       </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13">
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12">
         <v>-4.5</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AF37" s="12">
         <v>15</v>
       </c>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13">
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12">
         <v>4.5</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AJ37" s="12">
         <v>19</v>
       </c>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>928</v>
       </c>
@@ -2927,56 +3016,56 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="J38" s="12">
+      <c r="K38" s="11">
         <v>45879</v>
       </c>
-      <c r="K38" s="13">
+      <c r="L38" s="12">
         <v>18</v>
       </c>
-      <c r="L38" s="13">
+      <c r="M38" s="12">
         <v>-6</v>
       </c>
-      <c r="M38" s="13">
+      <c r="N38" s="12">
         <v>12</v>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13">
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12">
         <v>12</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AB38" s="12">
         <v>19</v>
       </c>
-      <c r="AB38" s="13">
+      <c r="AC38" s="12">
         <v>-8</v>
       </c>
-      <c r="AC38" s="13">
+      <c r="AD38" s="12">
         <v>11</v>
       </c>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13">
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12">
         <v>2</v>
       </c>
-      <c r="AG38" s="13">
+      <c r="AH38" s="12">
         <v>15</v>
       </c>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>928</v>
       </c>
@@ -2986,52 +3075,52 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="J39" s="12">
+      <c r="K39" s="11">
         <v>45890</v>
       </c>
-      <c r="K39" s="13">
+      <c r="L39" s="12">
         <v>18</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12">
         <v>-6</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="R39" s="12">
         <v>11</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="13">
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="12">
         <v>20</v>
       </c>
-      <c r="Z39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="12">
         <v>13</v>
       </c>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>928</v>
       </c>
@@ -3041,52 +3130,52 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="J40" s="12">
+      <c r="K40" s="11">
         <v>45897</v>
       </c>
-      <c r="K40" s="13">
+      <c r="L40" s="12">
         <v>18</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12">
         <v>-6</v>
       </c>
-      <c r="U40" s="13">
+      <c r="V40" s="12">
         <v>12</v>
       </c>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12">
         <v>4.5</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AB40" s="12">
         <v>20</v>
       </c>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13">
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12">
         <v>1.5</v>
       </c>
-      <c r="AG40" s="13">
+      <c r="AH40" s="12">
         <v>17</v>
       </c>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1002</v>
       </c>
@@ -3096,52 +3185,52 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="J41" s="12">
+      <c r="K41" s="11">
         <v>45897</v>
       </c>
-      <c r="K41" s="13">
+      <c r="L41" s="12">
         <v>18</v>
       </c>
-      <c r="L41" s="13">
+      <c r="M41" s="12">
         <v>4.5</v>
       </c>
-      <c r="M41" s="13">
+      <c r="N41" s="12">
         <v>20</v>
       </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13">
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12">
         <v>-1.5</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Z41" s="12">
         <v>14</v>
       </c>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13">
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12">
         <v>-3</v>
       </c>
-      <c r="AC41" s="13">
+      <c r="AD41" s="12">
         <v>15</v>
       </c>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1002</v>
       </c>
@@ -3151,48 +3240,48 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="J42" s="12">
+      <c r="K42" s="11">
         <v>45899</v>
       </c>
-      <c r="K42" s="13">
+      <c r="L42" s="12">
         <v>18</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13">
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12">
         <v>2</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Z42" s="12">
         <v>16</v>
       </c>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13">
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12">
         <v>-2</v>
       </c>
-      <c r="AI42" s="13">
+      <c r="AJ42" s="12">
         <v>9</v>
       </c>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1002</v>
       </c>
@@ -3202,56 +3291,56 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="J43" s="12">
+      <c r="K43" s="11">
         <v>45900</v>
       </c>
-      <c r="K43" s="13">
+      <c r="L43" s="12">
         <v>18</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13">
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12">
         <v>-5</v>
       </c>
-      <c r="U43" s="13">
+      <c r="V43" s="12">
         <v>13</v>
       </c>
-      <c r="V43" s="13">
+      <c r="W43" s="12">
         <v>-9</v>
       </c>
-      <c r="W43" s="13">
+      <c r="X43" s="12">
         <v>12</v>
       </c>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13">
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12">
         <v>8</v>
       </c>
-      <c r="AE43" s="13">
+      <c r="AF43" s="12">
         <v>18</v>
       </c>
-      <c r="AF43" s="13">
-        <v>6</v>
-      </c>
-      <c r="AG43" s="13">
+      <c r="AG43" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH43" s="12">
         <v>18</v>
       </c>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1002</v>
       </c>
@@ -3261,52 +3350,52 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="J44" s="12">
+      <c r="K44" s="11">
         <v>45907</v>
       </c>
-      <c r="K44" s="13">
+      <c r="L44" s="12">
         <v>12</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12">
         <v>3</v>
       </c>
-      <c r="O44" s="13">
+      <c r="P44" s="12">
         <v>14</v>
       </c>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13">
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AC44" s="13">
-        <v>6</v>
-      </c>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13">
+      <c r="AD44" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AG44" s="13">
+      <c r="AH44" s="12">
         <v>13</v>
       </c>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1002</v>
       </c>
@@ -3316,48 +3405,48 @@
       <c r="C45">
         <v>-3</v>
       </c>
-      <c r="J45" s="12">
+      <c r="K45" s="11">
         <v>45907</v>
       </c>
-      <c r="K45" s="13">
-        <v>6</v>
-      </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13">
+      <c r="L45" s="12">
+        <v>6</v>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12">
         <v>2</v>
       </c>
-      <c r="O45" s="13">
+      <c r="P45" s="12">
         <v>5</v>
       </c>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13">
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12">
         <v>-2</v>
       </c>
-      <c r="AC45" s="13">
+      <c r="AD45" s="12">
         <v>4</v>
       </c>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1002</v>
       </c>
@@ -3367,52 +3456,52 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="J46" s="12">
+      <c r="K46" s="11">
         <v>45911</v>
       </c>
-      <c r="K46" s="13">
-        <v>6</v>
-      </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13">
+      <c r="L46" s="12">
+        <v>6</v>
+      </c>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12">
         <v>3</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="R46" s="12">
         <v>8</v>
       </c>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13">
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12">
         <v>-3</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Z46" s="12">
         <v>3</v>
       </c>
-      <c r="Z46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="13">
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12">
         <v>4</v>
       </c>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1002</v>
       </c>
@@ -3422,56 +3511,56 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="J47" s="12">
+      <c r="K47" s="11">
         <v>45911</v>
       </c>
-      <c r="K47" s="13">
+      <c r="L47" s="12">
         <v>12</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12">
         <v>1</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="R47" s="12">
         <v>12</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="13">
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
         <v>9</v>
       </c>
-      <c r="Z47" s="13">
+      <c r="AA47" s="12">
         <v>2</v>
       </c>
-      <c r="AA47" s="13">
+      <c r="AB47" s="12">
         <v>9</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13">
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12">
         <v>-3</v>
       </c>
-      <c r="AG47" s="13">
+      <c r="AH47" s="12">
         <v>-8</v>
       </c>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1002</v>
       </c>
@@ -3481,52 +3570,52 @@
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="J48" s="12">
+      <c r="K48" s="11">
         <v>45914</v>
       </c>
-      <c r="K48" s="13">
+      <c r="L48" s="12">
         <v>12</v>
       </c>
-      <c r="L48" s="13">
-        <v>0</v>
-      </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12">
         <v>9</v>
       </c>
-      <c r="N48" s="13">
+      <c r="O48" s="12">
         <v>3</v>
       </c>
-      <c r="O48" s="13">
+      <c r="P48" s="12">
         <v>13</v>
       </c>
-      <c r="P48" s="13">
+      <c r="Q48" s="12">
         <v>-3</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="R48" s="12">
         <v>4</v>
       </c>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1002</v>
       </c>
@@ -3536,52 +3625,52 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="J49" s="12">
+      <c r="K49" s="11">
         <v>45914</v>
       </c>
-      <c r="K49" s="13">
+      <c r="L49" s="12">
         <v>18</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13">
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12">
         <v>-4.5</v>
       </c>
-      <c r="U49" s="13">
+      <c r="V49" s="12">
         <v>11</v>
       </c>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="13">
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
         <v>15</v>
       </c>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13">
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12">
         <v>4.5</v>
       </c>
-      <c r="AE49" s="13">
+      <c r="AF49" s="12">
         <v>17</v>
       </c>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1002</v>
       </c>
@@ -3591,50 +3680,50 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="J50" s="12">
+      <c r="K50" s="11">
         <v>45914</v>
       </c>
-      <c r="K50" s="13">
+      <c r="L50" s="12">
         <v>18</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13">
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12">
         <v>-4.5</v>
       </c>
-      <c r="S50" s="13">
+      <c r="T50" s="12">
         <v>10</v>
       </c>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13">
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12">
         <v>4.5</v>
       </c>
-      <c r="AA50" s="13">
+      <c r="AB50" s="12">
         <v>18</v>
       </c>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13">
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12">
         <v>16</v>
       </c>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1002</v>
       </c>
@@ -3644,52 +3733,52 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="J51" s="12">
+      <c r="K51" s="11">
         <v>45921</v>
       </c>
-      <c r="K51" s="13">
+      <c r="L51" s="12">
         <v>18</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13">
-        <v>0</v>
-      </c>
-      <c r="S51" s="13">
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12">
+        <v>0</v>
+      </c>
+      <c r="T51" s="12">
         <v>12</v>
       </c>
-      <c r="T51" s="13">
-        <v>0</v>
-      </c>
-      <c r="U51" s="13">
+      <c r="U51" s="12">
+        <v>0</v>
+      </c>
+      <c r="V51" s="12">
         <v>13</v>
       </c>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="13">
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="12">
         <v>16</v>
       </c>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-      <c r="AK51" s="13"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1002</v>
       </c>
@@ -3699,52 +3788,52 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="J52" s="12">
+      <c r="K52" s="11">
         <v>45921</v>
       </c>
-      <c r="K52" s="13">
+      <c r="L52" s="12">
         <v>18</v>
       </c>
-      <c r="L52" s="13">
+      <c r="M52" s="12">
         <v>-6</v>
       </c>
-      <c r="M52" s="13">
+      <c r="N52" s="12">
         <v>12</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13">
-        <v>6</v>
-      </c>
-      <c r="W52" s="13">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12">
+        <v>6</v>
+      </c>
+      <c r="X52" s="12">
         <v>21</v>
       </c>
-      <c r="X52" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="13">
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
         <v>17</v>
       </c>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="13"/>
-      <c r="AK52" s="13"/>
-    </row>
-    <row r="53" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+    </row>
+    <row r="53" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1002</v>
       </c>
@@ -3754,52 +3843,52 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="J53" s="18">
+      <c r="K53" s="16">
         <v>45921</v>
       </c>
-      <c r="K53" s="19">
+      <c r="L53" s="17">
         <v>18</v>
       </c>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19">
-        <v>0</v>
-      </c>
-      <c r="O53" s="19">
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17">
         <v>23</v>
       </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19">
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17">
         <v>1.5</v>
       </c>
-      <c r="AC53" s="19">
+      <c r="AD53" s="17">
         <v>23</v>
       </c>
-      <c r="AD53" s="19">
+      <c r="AE53" s="17">
         <v>-1.5</v>
       </c>
-      <c r="AE53" s="19">
+      <c r="AF53" s="17">
         <v>23</v>
       </c>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1002</v>
       </c>
@@ -3809,48 +3898,48 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="16">
+      <c r="K54" s="14">
         <v>45925</v>
       </c>
-      <c r="K54" s="17">
+      <c r="L54" s="15">
         <v>18</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17">
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15">
         <v>2</v>
       </c>
-      <c r="U54" s="17">
+      <c r="V54" s="15">
         <v>15</v>
       </c>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17">
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15">
         <v>-2</v>
       </c>
-      <c r="AA54" s="17">
+      <c r="AB54" s="15">
         <v>17</v>
       </c>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
-      <c r="AJ54" s="17"/>
-      <c r="AK54" s="17"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1002</v>
       </c>
@@ -3860,48 +3949,48 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="J55" s="12">
+      <c r="K55" s="11">
         <v>45928</v>
       </c>
-      <c r="K55" s="13">
+      <c r="L55" s="12">
         <v>18</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13">
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12">
         <v>2</v>
       </c>
-      <c r="AE55" s="13">
+      <c r="AF55" s="12">
         <v>16</v>
       </c>
-      <c r="AF55" s="13">
+      <c r="AG55" s="12">
         <v>-2</v>
       </c>
-      <c r="AG55" s="13">
+      <c r="AH55" s="12">
         <v>12</v>
       </c>
-      <c r="AH55" s="13"/>
-      <c r="AI55" s="13"/>
-      <c r="AJ55" s="13"/>
-      <c r="AK55" s="13"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1002</v>
       </c>
@@ -3911,52 +4000,52 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="J56" s="12">
+      <c r="K56" s="11">
         <v>45928</v>
       </c>
-      <c r="K56" s="13">
+      <c r="L56" s="12">
         <v>18</v>
       </c>
-      <c r="L56" s="13">
-        <v>6</v>
-      </c>
-      <c r="M56" s="13">
+      <c r="M56" s="12">
+        <v>6</v>
+      </c>
+      <c r="N56" s="12">
         <v>17</v>
       </c>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13">
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12">
         <v>-7.5</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="R56" s="12">
         <v>10</v>
       </c>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13">
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12">
         <v>1.5</v>
       </c>
-      <c r="AC56" s="13">
+      <c r="AD56" s="12">
         <v>14</v>
       </c>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="13"/>
-      <c r="AJ56" s="13"/>
-      <c r="AK56" s="13"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1002</v>
       </c>
@@ -3966,50 +4055,50 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="J57" s="12">
+      <c r="K57" s="11">
         <v>45932</v>
       </c>
-      <c r="K57" s="13">
-        <v>6</v>
-      </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13">
+      <c r="L57" s="12">
+        <v>6</v>
+      </c>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12">
         <v>4</v>
       </c>
-      <c r="T57" s="13">
+      <c r="U57" s="12">
         <v>-3</v>
       </c>
-      <c r="U57" s="13">
+      <c r="V57" s="12">
         <v>2</v>
       </c>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13">
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12">
         <v>3</v>
       </c>
-      <c r="AA57" s="13">
-        <v>6</v>
-      </c>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-      <c r="AK57" s="13"/>
-    </row>
-    <row r="58" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB57" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+    </row>
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1002</v>
       </c>
@@ -4019,52 +4108,52 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="J58" s="12">
+      <c r="K58" s="11">
         <v>45932</v>
       </c>
-      <c r="K58" s="13">
-        <v>6</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13">
+      <c r="L58" s="12">
+        <v>6</v>
+      </c>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12">
         <v>3</v>
       </c>
-      <c r="Y58" s="13">
+      <c r="Z58" s="12">
         <v>8</v>
       </c>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="13">
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="12">
         <v>4</v>
       </c>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13">
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12">
         <v>-3</v>
       </c>
-      <c r="AG58" s="13">
+      <c r="AH58" s="12">
         <v>3</v>
       </c>
-      <c r="AH58" s="13"/>
-      <c r="AI58" s="13"/>
-      <c r="AJ58" s="13"/>
-      <c r="AK58" s="13"/>
-    </row>
-    <row r="59" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+    </row>
+    <row r="59" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1002</v>
       </c>
@@ -4083,63 +4172,64 @@
       <c r="G59">
         <v>25</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="19">
         <f>G59-F59</f>
         <v>6</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="19">
         <v>-6</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="19"/>
+      <c r="K59" s="11">
         <v>45932</v>
       </c>
-      <c r="K59" s="13">
-        <v>6</v>
-      </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="13">
+      <c r="L59" s="12">
+        <v>6</v>
+      </c>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="12">
         <v>3</v>
       </c>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13">
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12">
         <v>4</v>
       </c>
-      <c r="Y59" s="13">
+      <c r="Z59" s="12">
         <v>4</v>
       </c>
-      <c r="Z59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="13">
+      <c r="AA59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="12">
         <v>3</v>
       </c>
-      <c r="AB59" s="13">
+      <c r="AC59" s="12">
         <v>-4</v>
       </c>
-      <c r="AC59" s="13">
+      <c r="AD59" s="12">
         <v>2</v>
       </c>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-      <c r="AK59" s="13"/>
-    </row>
-    <row r="60" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+    </row>
+    <row r="60" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1002</v>
       </c>
@@ -4158,53 +4248,54 @@
       <c r="G60">
         <v>11.5</v>
       </c>
-      <c r="H60" s="21">
-        <f t="shared" ref="H60:H71" si="0">G60-F60</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="12">
+      <c r="H60" s="19">
+        <f t="shared" ref="H60:H71" si="1">G60-F60</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="11">
         <v>45932</v>
       </c>
-      <c r="K60" s="13">
-        <v>6</v>
-      </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13">
+      <c r="L60" s="12">
+        <v>6</v>
+      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12">
         <v>2</v>
       </c>
-      <c r="S60" s="13">
+      <c r="T60" s="12">
         <v>10</v>
       </c>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13">
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12">
         <v>-2</v>
       </c>
-      <c r="AA60" s="13">
-        <v>6</v>
-      </c>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
-      <c r="AJ60" s="13"/>
-      <c r="AK60" s="13"/>
-    </row>
-    <row r="61" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB60" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+    </row>
+    <row r="61" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1002</v>
       </c>
@@ -4223,61 +4314,62 @@
       <c r="G61">
         <v>9.5</v>
       </c>
-      <c r="H61" s="21">
-        <f t="shared" si="0"/>
+      <c r="H61" s="19">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="12">
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="11">
         <v>45932</v>
       </c>
-      <c r="K61" s="13">
-        <v>6</v>
-      </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13">
+      <c r="L61" s="12">
+        <v>6</v>
+      </c>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12">
         <v>-3</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="R61" s="12">
         <v>3</v>
       </c>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13">
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12">
         <v>2</v>
       </c>
-      <c r="Y61" s="13">
-        <v>6</v>
-      </c>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13">
+      <c r="Z61" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12">
         <v>-3</v>
       </c>
-      <c r="AC61" s="13">
+      <c r="AD61" s="12">
         <v>3</v>
       </c>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13">
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12">
         <v>4</v>
       </c>
-      <c r="AG61" s="13">
+      <c r="AH61" s="12">
         <v>7</v>
       </c>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-    </row>
-    <row r="62" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+    </row>
+    <row r="62" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1002</v>
       </c>
@@ -4296,53 +4388,54 @@
       <c r="G62">
         <v>4.5</v>
       </c>
-      <c r="H62" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="12">
+      <c r="H62" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="11">
         <v>45939</v>
       </c>
-      <c r="K62" s="13">
+      <c r="L62" s="12">
         <v>12</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="13">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="12">
         <v>16</v>
       </c>
-      <c r="Z62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="13">
+      <c r="AA62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="12">
         <v>13</v>
       </c>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13"/>
-    </row>
-    <row r="63" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+    </row>
+    <row r="63" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1002</v>
       </c>
@@ -4361,61 +4454,62 @@
       <c r="G63">
         <v>5</v>
       </c>
-      <c r="H63" s="21">
-        <f t="shared" si="0"/>
+      <c r="H63" s="19">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="12">
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="11">
         <v>45939</v>
       </c>
-      <c r="K63" s="13">
+      <c r="L63" s="12">
         <v>18</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="20">
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="18">
         <v>10</v>
       </c>
-      <c r="Q63" s="20">
+      <c r="R63" s="18">
         <v>15</v>
       </c>
-      <c r="R63" s="20">
+      <c r="S63" s="18">
         <v>1</v>
       </c>
-      <c r="S63" s="20">
+      <c r="T63" s="18">
         <v>13</v>
       </c>
-      <c r="T63" s="20">
+      <c r="U63" s="18">
         <v>-6</v>
       </c>
-      <c r="U63" s="20">
+      <c r="V63" s="18">
         <v>8</v>
       </c>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20">
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="18"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18">
         <v>-5</v>
       </c>
-      <c r="AC63" s="20">
+      <c r="AD63" s="18">
         <v>10</v>
       </c>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="13"/>
-      <c r="AJ63" s="13"/>
-      <c r="AK63" s="13"/>
-    </row>
-    <row r="64" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+    </row>
+    <row r="64" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -4434,53 +4528,54 @@
       <c r="G64">
         <v>3</v>
       </c>
-      <c r="H64" s="21">
-        <f t="shared" si="0"/>
+      <c r="H64" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="12">
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="11">
         <v>45942</v>
       </c>
-      <c r="K64" s="13">
+      <c r="L64" s="12">
         <v>18</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13">
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12">
         <v>-2</v>
       </c>
-      <c r="W64" s="13">
+      <c r="X64" s="12">
         <v>12</v>
       </c>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13">
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12">
         <v>2</v>
       </c>
-      <c r="AC64" s="13">
+      <c r="AD64" s="12">
         <v>14</v>
       </c>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="13"/>
-      <c r="AJ64" s="13"/>
-      <c r="AK64" s="13"/>
-    </row>
-    <row r="65" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+    </row>
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1002</v>
       </c>
@@ -4499,61 +4594,62 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="12">
+      <c r="H65" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="11">
         <v>45942</v>
       </c>
-      <c r="K65" s="13">
+      <c r="L65" s="12">
         <v>18</v>
       </c>
-      <c r="L65" s="13">
+      <c r="M65" s="12">
         <v>-9</v>
       </c>
-      <c r="M65" s="13">
+      <c r="N65" s="12">
         <v>10</v>
       </c>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13">
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12">
         <v>4</v>
       </c>
-      <c r="Y65" s="13">
+      <c r="Z65" s="12">
         <v>19</v>
       </c>
-      <c r="Z65" s="13">
+      <c r="AA65" s="12">
         <v>10</v>
       </c>
-      <c r="AA65" s="13">
+      <c r="AB65" s="12">
         <v>23</v>
       </c>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13">
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12">
         <v>-5</v>
       </c>
-      <c r="AE65" s="13">
+      <c r="AF65" s="12">
         <v>13</v>
       </c>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-      <c r="AH65" s="13"/>
-      <c r="AI65" s="13"/>
-      <c r="AJ65" s="13"/>
-      <c r="AK65" s="13"/>
-    </row>
-    <row r="66" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+    </row>
+    <row r="66" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1002</v>
       </c>
@@ -4572,53 +4668,54 @@
       <c r="G66">
         <v>-4</v>
       </c>
-      <c r="H66" s="21">
-        <f t="shared" si="0"/>
+      <c r="H66" s="19">
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="12">
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="11">
         <v>45948</v>
       </c>
-      <c r="K66" s="13">
+      <c r="L66" s="12">
         <v>18</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13">
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12">
         <v>-2</v>
       </c>
-      <c r="Y66" s="13">
+      <c r="Z66" s="12">
         <v>18</v>
       </c>
-      <c r="Z66" s="13">
+      <c r="AA66" s="12">
         <v>2</v>
       </c>
-      <c r="AA66" s="13">
+      <c r="AB66" s="12">
         <v>22</v>
       </c>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="13"/>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="13"/>
-      <c r="AI66" s="13"/>
-      <c r="AJ66" s="13"/>
-      <c r="AK66" s="13"/>
-    </row>
-    <row r="67" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+    </row>
+    <row r="67" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1002</v>
       </c>
@@ -4637,57 +4734,58 @@
       <c r="G67">
         <v>-6</v>
       </c>
-      <c r="H67" s="21">
-        <f t="shared" si="0"/>
+      <c r="H67" s="19">
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="12">
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="11">
         <v>45949</v>
       </c>
-      <c r="K67" s="13">
+      <c r="L67" s="12">
         <v>18</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13">
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12">
         <v>1.5</v>
       </c>
-      <c r="W67" s="13">
+      <c r="X67" s="12">
         <v>16</v>
       </c>
-      <c r="X67" s="13">
+      <c r="Y67" s="12">
         <v>-4.5</v>
       </c>
-      <c r="Y67" s="13">
+      <c r="Z67" s="12">
         <v>13</v>
       </c>
-      <c r="Z67" s="13">
+      <c r="AA67" s="12">
         <v>3</v>
       </c>
-      <c r="AA67" s="13">
+      <c r="AB67" s="12">
         <v>20</v>
       </c>
-      <c r="AB67" s="13"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="13"/>
-      <c r="AF67" s="13"/>
-      <c r="AG67" s="13"/>
-      <c r="AH67" s="13"/>
-      <c r="AI67" s="13"/>
-      <c r="AJ67" s="13"/>
-      <c r="AK67" s="13"/>
-    </row>
-    <row r="68" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+    </row>
+    <row r="68" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1002</v>
       </c>
@@ -4706,57 +4804,58 @@
       <c r="G68">
         <v>-5</v>
       </c>
-      <c r="H68" s="21">
-        <f t="shared" si="0"/>
+      <c r="H68" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="12">
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="11">
         <v>45949</v>
       </c>
-      <c r="K68" s="13">
+      <c r="L68" s="12">
         <v>18</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13">
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12">
         <v>-1.5</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="R68" s="12">
         <v>14</v>
       </c>
-      <c r="R68" s="13">
+      <c r="S68" s="12">
         <v>-6</v>
       </c>
-      <c r="S68" s="13">
+      <c r="T68" s="12">
         <v>13</v>
       </c>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
-      <c r="AC68" s="13"/>
-      <c r="AD68" s="13">
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12">
         <v>7.5</v>
       </c>
-      <c r="AE68" s="13">
+      <c r="AF68" s="12">
         <v>18</v>
       </c>
-      <c r="AF68" s="13"/>
-      <c r="AG68" s="13"/>
-      <c r="AH68" s="13"/>
-      <c r="AI68" s="13"/>
-      <c r="AJ68" s="13"/>
-      <c r="AK68" s="13"/>
-    </row>
-    <row r="69" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+    </row>
+    <row r="69" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1002</v>
       </c>
@@ -4775,61 +4874,62 @@
       <c r="G69">
         <v>-13</v>
       </c>
-      <c r="H69" s="21">
-        <f t="shared" si="0"/>
+      <c r="H69" s="19">
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="12">
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="11">
         <v>45955</v>
       </c>
-      <c r="K69" s="13">
+      <c r="L69" s="12">
         <v>18</v>
       </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="20">
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="18">
         <v>-4</v>
       </c>
-      <c r="S69" s="20">
+      <c r="T69" s="18">
         <v>16</v>
       </c>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20">
-        <v>0</v>
-      </c>
-      <c r="W69" s="20">
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18">
+        <v>0</v>
+      </c>
+      <c r="X69" s="18">
         <v>22</v>
       </c>
-      <c r="X69" s="20">
+      <c r="Y69" s="18">
         <v>-4</v>
       </c>
-      <c r="Y69" s="20">
+      <c r="Z69" s="18">
         <v>18</v>
       </c>
-      <c r="Z69" s="20">
+      <c r="AA69" s="18">
         <v>8</v>
       </c>
-      <c r="AA69" s="20">
+      <c r="AB69" s="18">
         <v>25</v>
       </c>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="13"/>
-      <c r="AE69" s="13"/>
-      <c r="AF69" s="13"/>
-      <c r="AG69" s="13"/>
-      <c r="AH69" s="13"/>
-      <c r="AI69" s="13"/>
-      <c r="AJ69" s="13"/>
-      <c r="AK69" s="13"/>
-    </row>
-    <row r="70" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+    </row>
+    <row r="70" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1002</v>
       </c>
@@ -4848,57 +4948,58 @@
       <c r="G70">
         <v>-13.5</v>
       </c>
-      <c r="H70" s="21">
-        <f t="shared" si="0"/>
+      <c r="H70" s="19">
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="12">
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="11">
         <v>45956</v>
       </c>
-      <c r="K70" s="13">
-        <v>6</v>
-      </c>
-      <c r="L70" s="13">
-        <v>0</v>
-      </c>
-      <c r="M70" s="13">
-        <v>6</v>
-      </c>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13">
-        <v>0</v>
-      </c>
-      <c r="S70" s="13">
-        <v>6</v>
-      </c>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13">
-        <v>0</v>
-      </c>
-      <c r="W70" s="13">
-        <v>6</v>
-      </c>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="13"/>
-      <c r="AF70" s="13"/>
-      <c r="AG70" s="13"/>
-      <c r="AH70" s="13"/>
-      <c r="AI70" s="13"/>
-      <c r="AJ70" s="13"/>
-      <c r="AK70" s="13"/>
-    </row>
-    <row r="71" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L70" s="12">
+        <v>6</v>
+      </c>
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <v>6</v>
+      </c>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12">
+        <v>0</v>
+      </c>
+      <c r="T70" s="12">
+        <v>6</v>
+      </c>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12">
+        <v>0</v>
+      </c>
+      <c r="X70" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+    </row>
+    <row r="71" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1002</v>
       </c>
@@ -4917,57 +5018,58 @@
       <c r="G71">
         <v>-17</v>
       </c>
-      <c r="H71" s="21">
-        <f t="shared" si="0"/>
+      <c r="H71" s="19">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="I71" s="21"/>
-      <c r="J71" s="12">
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="11">
         <v>45956</v>
       </c>
-      <c r="K71" s="13">
-        <v>6</v>
-      </c>
-      <c r="L71" s="13">
+      <c r="L71" s="12">
+        <v>6</v>
+      </c>
+      <c r="M71" s="12">
         <v>-6</v>
       </c>
-      <c r="M71" s="13">
+      <c r="N71" s="12">
         <v>4</v>
       </c>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13">
-        <v>0</v>
-      </c>
-      <c r="S71" s="13">
-        <v>6</v>
-      </c>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13">
-        <v>6</v>
-      </c>
-      <c r="W71" s="13">
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12">
+        <v>0</v>
+      </c>
+      <c r="T71" s="12">
+        <v>6</v>
+      </c>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12">
+        <v>6</v>
+      </c>
+      <c r="X71" s="12">
         <v>8</v>
       </c>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
-      <c r="AC71" s="13"/>
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="13"/>
-      <c r="AG71" s="13"/>
-      <c r="AH71" s="13"/>
-      <c r="AI71" s="13"/>
-      <c r="AJ71" s="13"/>
-      <c r="AK71" s="13"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1002</v>
       </c>
@@ -4981,52 +5083,52 @@
         <f>SUM(F59:F71)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="12">
+      <c r="K72" s="11">
         <v>45956</v>
       </c>
-      <c r="K72" s="13">
-        <v>6</v>
-      </c>
-      <c r="L72" s="13">
+      <c r="L72" s="12">
+        <v>6</v>
+      </c>
+      <c r="M72" s="12">
         <v>-6</v>
       </c>
-      <c r="M72" s="13">
+      <c r="N72" s="12">
         <v>2</v>
       </c>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13">
-        <v>0</v>
-      </c>
-      <c r="S72" s="13">
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12">
+        <v>0</v>
+      </c>
+      <c r="T72" s="12">
         <v>4</v>
       </c>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13">
-        <v>6</v>
-      </c>
-      <c r="W72" s="13">
-        <v>6</v>
-      </c>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="13"/>
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="13"/>
-      <c r="AF72" s="13"/>
-      <c r="AG72" s="13"/>
-      <c r="AH72" s="13"/>
-      <c r="AI72" s="13"/>
-      <c r="AJ72" s="13"/>
-      <c r="AK72" s="13"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12">
+        <v>6</v>
+      </c>
+      <c r="X72" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1002</v>
       </c>
@@ -5036,52 +5138,52 @@
       <c r="C73">
         <v>4</v>
       </c>
-      <c r="J73" s="12">
+      <c r="K73" s="11">
         <v>45956</v>
       </c>
-      <c r="K73" s="13">
-        <v>6</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="13">
-        <v>6</v>
-      </c>
-      <c r="Z73" s="13">
+      <c r="L73" s="12">
+        <v>6</v>
+      </c>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA73" s="12">
         <v>-6</v>
       </c>
-      <c r="AA73" s="13">
+      <c r="AB73" s="12">
         <v>4</v>
       </c>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="13"/>
-      <c r="AD73" s="13">
-        <v>6</v>
-      </c>
-      <c r="AE73" s="13">
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF73" s="12">
         <v>7</v>
       </c>
-      <c r="AF73" s="13"/>
-      <c r="AG73" s="13"/>
-      <c r="AH73" s="13"/>
-      <c r="AI73" s="13"/>
-      <c r="AJ73" s="13"/>
-      <c r="AK73" s="13"/>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1002</v>
       </c>
@@ -5091,52 +5193,52 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="J74" s="12">
+      <c r="K74" s="11">
         <v>45956</v>
       </c>
-      <c r="K74" s="13">
-        <v>6</v>
-      </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13">
+      <c r="L74" s="12">
+        <v>6</v>
+      </c>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12">
         <v>-3</v>
       </c>
-      <c r="Y74" s="13">
+      <c r="Z74" s="12">
         <v>1</v>
       </c>
-      <c r="Z74" s="13">
-        <v>6</v>
-      </c>
-      <c r="AA74" s="13">
+      <c r="AA74" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB74" s="12">
         <v>4</v>
       </c>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13">
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12">
         <v>-3</v>
       </c>
-      <c r="AE74" s="13">
+      <c r="AF74" s="12">
         <v>1</v>
       </c>
-      <c r="AF74" s="13"/>
-      <c r="AG74" s="13"/>
-      <c r="AH74" s="13"/>
-      <c r="AI74" s="13"/>
-      <c r="AJ74" s="13"/>
-      <c r="AK74" s="13"/>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1002</v>
       </c>
@@ -5146,52 +5248,52 @@
       <c r="C75">
         <v>-4</v>
       </c>
-      <c r="J75" s="12">
+      <c r="K75" s="11">
         <v>45956</v>
       </c>
-      <c r="K75" s="13">
-        <v>6</v>
-      </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13">
-        <v>6</v>
-      </c>
-      <c r="Y75" s="13">
+      <c r="L75" s="12">
+        <v>6</v>
+      </c>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z75" s="12">
         <v>8</v>
       </c>
-      <c r="Z75" s="13">
+      <c r="AA75" s="12">
         <v>-3</v>
       </c>
-      <c r="AA75" s="13">
+      <c r="AB75" s="12">
         <v>5</v>
       </c>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="13"/>
-      <c r="AD75" s="13">
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12">
         <v>-3</v>
       </c>
-      <c r="AE75" s="13">
+      <c r="AF75" s="12">
         <v>5</v>
       </c>
-      <c r="AF75" s="13"/>
-      <c r="AG75" s="13"/>
-      <c r="AH75" s="13"/>
-      <c r="AI75" s="13"/>
-      <c r="AJ75" s="13"/>
-      <c r="AK75" s="13"/>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1002</v>
       </c>
@@ -5201,36 +5303,36 @@
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="14"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="14"/>
-      <c r="Z76" s="14"/>
-      <c r="AA76" s="14"/>
-      <c r="AB76" s="14"/>
-      <c r="AC76" s="14"/>
-      <c r="AD76" s="14"/>
-      <c r="AE76" s="14"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="14"/>
-      <c r="AH76" s="14"/>
-      <c r="AI76" s="14"/>
-      <c r="AJ76" s="14"/>
-      <c r="AK76" s="14"/>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="13"/>
+      <c r="AH76" s="13"/>
+      <c r="AI76" s="13"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="13"/>
+      <c r="AL76" s="13"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1002</v>
       </c>
@@ -5240,64 +5342,64 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="K77" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15">
+      <c r="L77" s="37"/>
+      <c r="M77" s="37">
         <v>13.3</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15">
+      <c r="N77" s="37"/>
+      <c r="O77" s="37">
         <v>7.9</v>
       </c>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15">
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37">
         <v>8.6</v>
       </c>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15">
+      <c r="R77" s="37"/>
+      <c r="S77" s="37">
         <v>8.9</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15">
+      <c r="T77" s="37"/>
+      <c r="U77" s="37">
         <v>11.6</v>
       </c>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15">
+      <c r="V77" s="37"/>
+      <c r="W77" s="37">
         <v>10.6</v>
       </c>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15">
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37">
         <v>24.7</v>
       </c>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15">
+      <c r="Z77" s="37"/>
+      <c r="AA77" s="37">
         <v>23.1</v>
       </c>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15">
+      <c r="AB77" s="37"/>
+      <c r="AC77" s="37">
         <v>15.9</v>
       </c>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="15">
+      <c r="AD77" s="37"/>
+      <c r="AE77" s="37">
         <v>12.4</v>
       </c>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15">
+      <c r="AF77" s="37"/>
+      <c r="AG77" s="37">
         <v>11</v>
       </c>
-      <c r="AG77" s="15"/>
-      <c r="AH77" s="15">
+      <c r="AH77" s="37"/>
+      <c r="AI77" s="37">
         <v>5.6</v>
       </c>
-      <c r="AI77" s="15"/>
-      <c r="AJ77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK77" s="15"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AJ77" s="37"/>
+      <c r="AK77" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="37"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1002</v>
       </c>
@@ -5308,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1002</v>
       </c>
@@ -5319,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1002</v>
       </c>
@@ -5330,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1002</v>
       </c>
@@ -5341,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1002</v>
       </c>
@@ -5351,14 +5453,33 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="J82" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K82" s="22" t="s">
+      <c r="E82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G82" s="9"/>
+      <c r="H82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L82" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q82" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1002</v>
       </c>
@@ -5368,20 +5489,42 @@
       <c r="C83">
         <v>2</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="22">
+        <v>29.5</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="22">
+        <v>20.5</v>
+      </c>
+      <c r="K83" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="24">
+      <c r="L83" s="22">
         <v>25</v>
       </c>
-      <c r="M83" s="6" t="s">
+      <c r="N83" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N83" s="7">
+      <c r="O83" s="24">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q83" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1002</v>
       </c>
@@ -5391,20 +5534,42 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="22">
+        <v>26</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K84" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K84" s="24">
+      <c r="L84" s="22">
         <v>11.5</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="N84" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N84" s="4">
+      <c r="O84" s="26">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q84" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R84" s="35">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>1002</v>
       </c>
@@ -5414,20 +5579,42 @@
       <c r="C85">
         <v>0</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K85" s="24">
+      <c r="F85" s="22">
+        <v>13.2</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="22">
+        <v>16.8</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="22">
         <v>9.5</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N85" s="2">
+      <c r="O85" s="28">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q85" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1002</v>
       </c>
@@ -5437,20 +5624,42 @@
       <c r="C86">
         <v>0</v>
       </c>
-      <c r="J86" s="23" t="s">
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="K86" s="24">
+      <c r="E86" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="22">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" s="22">
         <v>5</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="N86" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N86" s="4">
+      <c r="O86" s="26">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q86" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R86" s="35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1002</v>
       </c>
@@ -5460,20 +5669,42 @@
       <c r="C87">
         <v>-2</v>
       </c>
-      <c r="J87" s="23" t="s">
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="K87" s="24">
+      <c r="E87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" s="22">
         <v>4.5</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="N87" s="2">
+      <c r="O87" s="28">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q87" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R87" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>1002</v>
       </c>
@@ -5483,20 +5714,42 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="22">
+        <v>-4.5</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K88" s="24">
+      <c r="I88" s="22">
+        <v>15.3</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="22">
         <v>3</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="N88" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N88" s="4">
+      <c r="O88" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q88" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R88" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1002</v>
       </c>
@@ -5506,20 +5759,42 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="J89" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K89" s="24">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="22">
+        <v>-4.5</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="22">
+        <v>15.1</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="22">
         <v>-4</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N89" s="2">
+      <c r="N89" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O89" s="28">
         <v>-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q89" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R89" s="33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1002</v>
       </c>
@@ -5529,20 +5804,42 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="J90" s="23" t="s">
+      <c r="D90">
+        <v>-2</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="22">
+        <v>-5.5</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" s="22">
+        <v>15</v>
+      </c>
+      <c r="K90" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K90" s="24">
+      <c r="L90" s="22">
         <v>-5</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="N90" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N90" s="4">
+      <c r="O90" s="26">
         <v>-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q90" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="R90" s="35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>1002</v>
       </c>
@@ -5552,20 +5849,42 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="J91" s="23" t="s">
+      <c r="D91">
+        <v>-3</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="22">
+        <v>-6.3</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="22">
+        <v>14.8</v>
+      </c>
+      <c r="K91" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="24">
+      <c r="L91" s="22">
         <v>-6</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="2">
+      <c r="O91" s="28">
         <v>-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q91" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="33">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>1002</v>
       </c>
@@ -5575,20 +5894,42 @@
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="J92" s="23" t="s">
+      <c r="D92">
+        <v>-4</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="22">
+        <v>-7</v>
+      </c>
+      <c r="G92" s="9"/>
+      <c r="H92" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="22">
+        <v>13.8</v>
+      </c>
+      <c r="K92" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="24">
+      <c r="L92" s="22">
         <v>-13</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="N92" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N92" s="4">
+      <c r="O92" s="26">
         <v>-12</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q92" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92" s="35">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>1002</v>
       </c>
@@ -5598,20 +5939,42 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="J93" s="23" t="s">
+      <c r="D93">
+        <v>-5</v>
+      </c>
+      <c r="E93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K93" s="24">
+      <c r="F93" s="22">
+        <v>-11.8</v>
+      </c>
+      <c r="G93" s="9"/>
+      <c r="H93" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="22">
+        <v>12.7</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="22">
         <v>-13.5</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N93" s="2">
+      <c r="O93" s="28">
         <v>-12.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q93" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="33">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>1002</v>
       </c>
@@ -5621,20 +5984,42 @@
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="J94" s="23" t="s">
+      <c r="D94">
+        <v>-6</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="22">
+        <v>-36</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="22">
+        <v>12.6</v>
+      </c>
+      <c r="K94" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="24">
+      <c r="L94" s="22">
         <v>-17</v>
       </c>
-      <c r="M94" s="25" t="s">
+      <c r="N94" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N94" s="26">
+      <c r="O94" s="30">
         <v>-16</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q94" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94" s="35">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1002</v>
       </c>
@@ -5644,16 +6029,16 @@
       <c r="C95">
         <v>-3</v>
       </c>
-      <c r="K95" s="9">
-        <f>SUM(K83:K94)</f>
-        <v>0</v>
-      </c>
-      <c r="N95" s="9">
-        <f>SUM(N83:N94)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L95" s="9">
+        <f>SUM(L83:L94)</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="9">
+        <f>SUM(O83:O94)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>1002</v>
       </c>
@@ -5663,8 +6048,17 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>1002</v>
       </c>
@@ -5674,8 +6068,21 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E97" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="22">
+        <v>25</v>
+      </c>
+      <c r="G97" s="22">
+        <v>25</v>
+      </c>
+      <c r="H97">
+        <f>F97-G97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1002</v>
       </c>
@@ -5685,8 +6092,21 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E98" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="35">
+        <v>15</v>
+      </c>
+      <c r="G98" s="22">
+        <v>11.5</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ref="H98:H108" si="2">F98-G98</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1002</v>
       </c>
@@ -5696,8 +6116,21 @@
       <c r="C99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E99" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="G99" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1002</v>
       </c>
@@ -5707,8 +6140,21 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E100" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="35">
+        <v>7.5</v>
+      </c>
+      <c r="G100" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1002</v>
       </c>
@@ -5718,8 +6164,21 @@
       <c r="C101">
         <v>-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E101" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="G101" s="22">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1002</v>
       </c>
@@ -5729,8 +6188,21 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E102" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="G102" s="22">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1002</v>
       </c>
@@ -5740,8 +6212,21 @@
       <c r="C103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E103" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="33">
+        <v>1</v>
+      </c>
+      <c r="G103" s="22">
+        <v>-4</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1002</v>
       </c>
@@ -5751,8 +6236,21 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E104" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="35">
+        <v>-0.5</v>
+      </c>
+      <c r="G104" s="22">
+        <v>-6</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>1002</v>
       </c>
@@ -5762,8 +6260,21 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E105" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="33">
+        <v>-3</v>
+      </c>
+      <c r="G105" s="22">
+        <v>-5</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1009</v>
       </c>
@@ -5773,8 +6284,21 @@
       <c r="C106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E106" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="35">
+        <v>-6.5</v>
+      </c>
+      <c r="G106" s="22">
+        <v>-13</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>1009</v>
       </c>
@@ -5784,8 +6308,21 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E107" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="33">
+        <v>-7.5</v>
+      </c>
+      <c r="G107" s="22">
+        <v>-13.5</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1009</v>
       </c>
@@ -5795,8 +6332,21 @@
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E108" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="35">
+        <v>-12.5</v>
+      </c>
+      <c r="G108" s="22">
+        <v>-17</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>1009</v>
       </c>
@@ -5806,8 +6356,14 @@
       <c r="C109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
+      <c r="H109">
+        <f>SUM(H97:H108)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1009</v>
       </c>
@@ -5818,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1009</v>
       </c>
@@ -5828,8 +6384,29 @@
       <c r="C111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f>12-E111+1</f>
+        <v>12</v>
+      </c>
+      <c r="G111">
+        <f>F111/2</f>
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <f>F111-12/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1009</v>
       </c>
@@ -5839,8 +6416,29 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D112" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ref="F112:F122" si="3">12-E112+1</f>
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:G122" si="4">F112/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112:I122" si="5">F112-12/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1009</v>
       </c>
@@ -5850,8 +6448,29 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D113" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1009</v>
       </c>
@@ -5861,8 +6480,29 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D114" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1009</v>
       </c>
@@ -5872,8 +6512,29 @@
       <c r="C115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1009</v>
       </c>
@@ -5883,8 +6544,29 @@
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1009</v>
       </c>
@@ -5894,8 +6576,29 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D117" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>-1</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1009</v>
       </c>
@@ -5905,8 +6608,29 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="H118">
+        <v>-2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1009</v>
       </c>
@@ -5916,8 +6640,29 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D119" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>-3</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1009</v>
       </c>
@@ -5927,8 +6672,29 @@
       <c r="C120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D120" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="H120">
+        <v>-4</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1009</v>
       </c>
@@ -5938,8 +6704,29 @@
       <c r="C121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D121" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>-5</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1009</v>
       </c>
@@ -5949,8 +6736,29 @@
       <c r="C122">
         <v>-6</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D122" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H122">
+        <v>-6</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1009</v>
       </c>
@@ -5961,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1009</v>
       </c>
@@ -5972,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1009</v>
       </c>
@@ -5983,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1009</v>
       </c>
@@ -5994,7 +6802,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1009</v>
       </c>
@@ -6005,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1009</v>
       </c>
@@ -7759,35 +8567,35 @@
     <sortCondition ref="A2:A287"/>
   </sortState>
   <mergeCells count="29">
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="AB77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AK77:AL77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AB77"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="AE77:AF77"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
